--- a/pred_ohlcv/54_21/2020-01-14 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-629836.5072</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-645656.5072</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-642510.9449999999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-672642.9449999999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-669288.7102</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-599624.7346999999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1526284.7347</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1525284.7347</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-1062955.0302</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-1063901.2141</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5030262.327646952</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5043932.327646952</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-5185693.937462591</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H177">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H181">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H182">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H183">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H185">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H186">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H188">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H189">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H190">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H192">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H193">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-5184104.937462591</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-5184113.937462591</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-5184761.937462591</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-5481823.370962591</v>
       </c>
       <c r="H218">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5911155.862901859</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-5910028.285001859</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-5737234.053901859</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-5083708.748301859</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5048551.393301859</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-14 MIX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 MIX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-629836.5072</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-645656.5072</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-642510.9449999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-672642.9449999999</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-669288.7102</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-599624.7346999999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-626284.7346999999</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-1526284.7347</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-1071084.8623</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-5030262.327646952</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-5043932.327646952</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-5223203.234946951</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-5222554.234946951</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-5195018.022646951</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-5248994.072446952</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-5193777.970262591</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-5205890.970262591</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-5185693.937462591</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-5186358.937462591</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-5185254.937462591</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H198">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-5184623.937462591</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-5184761.937462591</v>
       </c>
       <c r="H203">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-5184251.937462591</v>
       </c>
       <c r="H206">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-5945136.128062591</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-5911155.862901859</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-5910028.285001859</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-5737234.053901859</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-5651878.312801858</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-5111599.991956126</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-5083708.748301859</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-5048551.393301859</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
